--- a/data/content_communication_naive.xlsx
+++ b/data/content_communication_naive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Sender_ID</t>
   </si>
@@ -43,43 +43,46 @@
     <t>F</t>
   </si>
   <si>
-    <t>[{'direction': 'south', 'obstacles': [('obs11', 3.47), ('obs12', 10.0)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'south', 'obstacles': [('obs11', 3.47), ('obs12', 10.0)]}, {'direction': 'west', 'obstacles': [('obs09', 3.95)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs11', 10.02), ('obs12', 3.37)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs09', 15.81), ('obs11', 10.02), ('obs12', 3.37)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'south', 'obstacles': [('obs02', 41.45), ('obs04', 12.74), ('obs10', 9.82)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs09', 19.81)]}, {'direction': 'south', 'obstacles': [('obs02', 41.45), ('obs04', 12.74), ('obs10', 9.82)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs09', 19.81)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs09', 19.81)]}, {'direction': 'south', 'obstacles': [('obs02', 41.45)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'south', 'obstacles': [('obs03', 20.92), ('obs07', 22.32)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs04', 22.98), ('obs10', 25.92)]}, {'direction': 'south', 'obstacles': [('obs01', 39.62), ('obs02', 5.77), ('obs05', 38.02), ('obs08', 41.52)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'south', 'obstacles': [('obs01', 39.62), ('obs05', 38.02), ('obs08', 41.52)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'south', 'obstacles': [('obs01', 39.62), ('obs02', 5.77), ('obs05', 38.02), ('obs08', 41.52)]}]</t>
-  </si>
-  <si>
-    <t>[{'direction': 'north', 'obstacles': [('obs04', 15.58), ('obs10', 16.48)]}]</t>
+    <t>[{'direction': 'south', 'obstacles': [('obs05', 5.03)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs10', 8.65)]}, {'direction': 'south', 'obstacles': [('obs05', 5.03)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs05', 8.34)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs05', 8.34), ('obs10', 21.27)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs03', 41.94)]}, {'direction': 'south', 'obstacles': [('obs01', 10.46), ('obs06', 46.97)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'south', 'obstacles': [('obs01', 10.46), ('obs06', 46.97)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs03', 41.94), ('obs10', 16.15)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs03', 41.94), ('obs10', 16.15)]}, {'direction': 'south', 'obstacles': [('obs06', 46.97)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs03', 5.3)]}, {'direction': 'south', 'obstacles': [('obs02', 25.31), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'south', 'obstacles': [('obs02', 25.31), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs03', 5.3), ('obs10', 30.39)]}, {'direction': 'south', 'obstacles': [('obs02', 25.31), ('obs07', 27.08), ('obs08', 33.54), ('obs09', 30.94)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs01', 25.99)]}, {'direction': 'south', 'obstacles': [('obs06', 11.58)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'south', 'obstacles': [('obs06', 11.58)]}]</t>
+  </si>
+  <si>
+    <t>[{'direction': 'north', 'obstacles': [('obs01', 19.12)]}]</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,7 +520,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -638,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -649,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -660,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -671,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -679,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -690,21 +693,21 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -712,10 +715,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -723,21 +726,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
